--- a/data/Classes_2025_biology.xlsx
+++ b/data/Classes_2025_biology.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView windowWidth="22188" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Seminars" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$142</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="709">
   <si>
     <t>Family</t>
   </si>
@@ -1726,6 +1727,453 @@
     <t>st116706</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Seminar_1</t>
+  </si>
+  <si>
+    <t>Seminar_2</t>
+  </si>
+  <si>
+    <t>Seminar_3</t>
+  </si>
+  <si>
+    <t>Seminar_4</t>
+  </si>
+  <si>
+    <t>Seminar_5</t>
+  </si>
+  <si>
+    <t>Seminar_6</t>
+  </si>
+  <si>
+    <t>Seminar_7</t>
+  </si>
+  <si>
+    <t>Акаева Амалия Камаловна</t>
+  </si>
+  <si>
+    <t>Алешина Анна Андреевна</t>
+  </si>
+  <si>
+    <t>Андронова Виктория Николаевна</t>
+  </si>
+  <si>
+    <t>Бабич Дарья Игоревна</t>
+  </si>
+  <si>
+    <t>Башкина Алиса Алексеевна</t>
+  </si>
+  <si>
+    <t>Белозерцева Екатерина Максимовна</t>
+  </si>
+  <si>
+    <t>Белоконь Екатерина Владиславовна</t>
+  </si>
+  <si>
+    <t>Беляков Матвей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Брон Любовь Дмитриевна</t>
+  </si>
+  <si>
+    <t>Бугдарян Виктория Вардановна</t>
+  </si>
+  <si>
+    <t>Бузылева Дарья Валентиновна</t>
+  </si>
+  <si>
+    <t>Вакуленко Алина Алексеевна</t>
+  </si>
+  <si>
+    <t>Величковская Арина Олеговна</t>
+  </si>
+  <si>
+    <t>Витухина Мария Сергеевна</t>
+  </si>
+  <si>
+    <t>Волкова Дарья Дмитриевна</t>
+  </si>
+  <si>
+    <t>Головачева Маргарита Григорьевна</t>
+  </si>
+  <si>
+    <t>Гречишкина Полина Максимовна</t>
+  </si>
+  <si>
+    <t>Гринева Анастасия</t>
+  </si>
+  <si>
+    <t>Макеев Андрей Антонович</t>
+  </si>
+  <si>
+    <t>Мамедова Сона Яшаровна</t>
+  </si>
+  <si>
+    <t>Ярцева Эйла Владимировна</t>
+  </si>
+  <si>
+    <t>Акчурина Елизавеьта Вадимовна</t>
+  </si>
+  <si>
+    <t>Горбачев Станислав Алексеевич</t>
+  </si>
+  <si>
+    <t>Гордобаева Елизавета Александровна</t>
+  </si>
+  <si>
+    <t>Деяшкин Кирилл Константинович</t>
+  </si>
+  <si>
+    <t>Дмитриева Алина Андреевна</t>
+  </si>
+  <si>
+    <t>Донскова Ирина Максимовна</t>
+  </si>
+  <si>
+    <t>Дроздова Анастасия Дмитриевна</t>
+  </si>
+  <si>
+    <t>Дугинова Ольга Максимовна</t>
+  </si>
+  <si>
+    <t>Дуреев Максим Вадимович</t>
+  </si>
+  <si>
+    <t>Евланникова Полина Михайловна</t>
+  </si>
+  <si>
+    <t>Евланов Савелий Олегович</t>
+  </si>
+  <si>
+    <t>Евтеева Мария Николаевна</t>
+  </si>
+  <si>
+    <t>Еремина Оксана Сергеевна</t>
+  </si>
+  <si>
+    <t>Ерёмич Максим Павлович</t>
+  </si>
+  <si>
+    <t>Завитаев Данила Андреевич</t>
+  </si>
+  <si>
+    <t>Замешина Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t>Заякин Арсений Петрович</t>
+  </si>
+  <si>
+    <t>Зюбанова Александра Максимовна</t>
+  </si>
+  <si>
+    <t>Никулина Елизавета Андреевна</t>
+  </si>
+  <si>
+    <t>Черникова Наталия Константиновна</t>
+  </si>
+  <si>
+    <t>Иваненко Анастасия Владиславовна</t>
+  </si>
+  <si>
+    <t>Иванов Кирилл Алексеевич</t>
+  </si>
+  <si>
+    <t>Иванова Алиса Олеговна</t>
+  </si>
+  <si>
+    <t>Иванова Кира Кирилловна</t>
+  </si>
+  <si>
+    <t>Извозчикова Александра Юрьевна</t>
+  </si>
+  <si>
+    <t>Кельина Елена Александровна</t>
+  </si>
+  <si>
+    <t>Кобизева Мария Алексеевна</t>
+  </si>
+  <si>
+    <t>Колоскова Валерия Ивановна</t>
+  </si>
+  <si>
+    <t>Кононова Полина Сергеевна</t>
+  </si>
+  <si>
+    <t>Корчагина Юлия Владимировна</t>
+  </si>
+  <si>
+    <t>Котлярова Юлиана Алексеевна</t>
+  </si>
+  <si>
+    <t>Кощеева Ольга Сергеевна</t>
+  </si>
+  <si>
+    <t>Кремнёв Валентин Андреевич</t>
+  </si>
+  <si>
+    <t>Куликова Алиса Александровна</t>
+  </si>
+  <si>
+    <t>Кустадинчев Роман Максимович</t>
+  </si>
+  <si>
+    <t>Лаврова Ефросинья Андреевна</t>
+  </si>
+  <si>
+    <t>Ланскова Полина Валерьевна</t>
+  </si>
+  <si>
+    <t>Лапшин Максим Анатольевич</t>
+  </si>
+  <si>
+    <t>Логинова Софья Александровна</t>
+  </si>
+  <si>
+    <t>Родинова Маргарита Андреевна</t>
+  </si>
+  <si>
+    <t>Киселева Таисия Сергеевна</t>
+  </si>
+  <si>
+    <t>Козлова Дарья Алексеевна</t>
+  </si>
+  <si>
+    <t>Кочегарова Ольга Александровна</t>
+  </si>
+  <si>
+    <t>Лазарева Софья Михайловна</t>
+  </si>
+  <si>
+    <t>Ланщакова Анна Максимовна</t>
+  </si>
+  <si>
+    <t>Ланьшова Полина Денисовна</t>
+  </si>
+  <si>
+    <t>Лобанов Андрей Андреевич</t>
+  </si>
+  <si>
+    <t>Луканина Мария Сергеевна</t>
+  </si>
+  <si>
+    <t>Лукашова Кристина Алексеевна</t>
+  </si>
+  <si>
+    <t>Лысова Анастасия Павловна</t>
+  </si>
+  <si>
+    <t>Макарова Анастасия Денисовна</t>
+  </si>
+  <si>
+    <t>Мардоян Анита Михайловна</t>
+  </si>
+  <si>
+    <t>Матряшина Анастасия Михайловна</t>
+  </si>
+  <si>
+    <t>Медведовская Нина Васильевна</t>
+  </si>
+  <si>
+    <t>Меланина Валерия Михайловна</t>
+  </si>
+  <si>
+    <t>Сёмин Пётр Александрович</t>
+  </si>
+  <si>
+    <t>Серяков Вадим Романович</t>
+  </si>
+  <si>
+    <t>Усачева Влада Андреевна</t>
+  </si>
+  <si>
+    <t>Фишер Анна София</t>
+  </si>
+  <si>
+    <t>Шевченко Анна Анатольевна</t>
+  </si>
+  <si>
+    <t>Александров Ярослав Алексеевич</t>
+  </si>
+  <si>
+    <t>Левашова Алёна Владимировна</t>
+  </si>
+  <si>
+    <t>Минеева Таисия Анатольевна</t>
+  </si>
+  <si>
+    <t>Негрышева Мария Андреевна</t>
+  </si>
+  <si>
+    <t>Овчинникова Анастасия Павловна</t>
+  </si>
+  <si>
+    <t>Огорельцева Ксения Константиновна</t>
+  </si>
+  <si>
+    <t>Пименов Роман Викторович</t>
+  </si>
+  <si>
+    <t>Пономарева Арина Родионовна</t>
+  </si>
+  <si>
+    <t>Ражина Мария Евгеньевна</t>
+  </si>
+  <si>
+    <t>Разин Родион Михайлович</t>
+  </si>
+  <si>
+    <t>Ржевская Валерия Андреевна</t>
+  </si>
+  <si>
+    <t>Родионов Кирилл Игоревич</t>
+  </si>
+  <si>
+    <t>Селезнёва Александра Алексеевна</t>
+  </si>
+  <si>
+    <t>Семаков Макар Владимирович</t>
+  </si>
+  <si>
+    <t>Семелева Анастасия Вячеславовна</t>
+  </si>
+  <si>
+    <t>Сидорук Кира Витальевна</t>
+  </si>
+  <si>
+    <t>Сипета Арина Романовна</t>
+  </si>
+  <si>
+    <t>Смирнова Ярослава Сергеевна</t>
+  </si>
+  <si>
+    <t>Сорокин Александр Петрович</t>
+  </si>
+  <si>
+    <t>Терентьева Ольга Михайловна</t>
+  </si>
+  <si>
+    <t>Биличенко Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>Волков Иван Александрович</t>
+  </si>
+  <si>
+    <t>Загривный Филипп Константинович</t>
+  </si>
+  <si>
+    <t>Маловецкий Марк Игоревич</t>
+  </si>
+  <si>
+    <t>Приходько Анастасия Валерьевна</t>
+  </si>
+  <si>
+    <t>Смирнова Александра Сергеевна</t>
+  </si>
+  <si>
+    <t>Сморж Юлия Александровна</t>
+  </si>
+  <si>
+    <t>Соколов Евгений Андреевич</t>
+  </si>
+  <si>
+    <t>Сорокина Полина Евгеньевна</t>
+  </si>
+  <si>
+    <t>Степин Никита Андреевич</t>
+  </si>
+  <si>
+    <t>Степук Степан Сергеевич</t>
+  </si>
+  <si>
+    <t>Суровцева Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>Тарасова Ангелина Александровна</t>
+  </si>
+  <si>
+    <t>Тихомирова Василиса Андреевна</t>
+  </si>
+  <si>
+    <t>Тюньков Александр Денисович</t>
+  </si>
+  <si>
+    <t>Усачева Марья Александровна</t>
+  </si>
+  <si>
+    <t>Фисенко Екатерина Максимовна</t>
+  </si>
+  <si>
+    <t>Фофанова Дарья Павловна</t>
+  </si>
+  <si>
+    <t>Хамзин Роман Алексеевич</t>
+  </si>
+  <si>
+    <t>Хацкевич Арина Николаевна</t>
+  </si>
+  <si>
+    <t>Ли Сян</t>
+  </si>
+  <si>
+    <t>Мамадбакирова Амина Тохировна</t>
+  </si>
+  <si>
+    <t>Мамедова Ася Огтай кызы</t>
+  </si>
+  <si>
+    <t>Мурая Анна Андреевна</t>
+  </si>
+  <si>
+    <t>Рыбакова Екатерина Михайловна</t>
+  </si>
+  <si>
+    <t>Смелкова Варвара Игоревна</t>
+  </si>
+  <si>
+    <t>Цилибин Максим Федорович</t>
+  </si>
+  <si>
+    <t>Цуркан Ольга Александровна</t>
+  </si>
+  <si>
+    <t>Чавка Дарья Михайловна</t>
+  </si>
+  <si>
+    <t>Чернявский Сергей Павлович</t>
+  </si>
+  <si>
+    <t>Чистоедов Вячеслав Михайлович</t>
+  </si>
+  <si>
+    <t>Чистякова Вера Павловна</t>
+  </si>
+  <si>
+    <t>Шаполова Карина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Шаруханов Амир Гаджиевич</t>
+  </si>
+  <si>
+    <t>Шатова Ульяна Алексеевна</t>
+  </si>
+  <si>
+    <t>Шуликова Милана</t>
+  </si>
+  <si>
+    <t>Шуча Джонатан Уэмбаленга</t>
+  </si>
+  <si>
+    <t>Щепотьева Ольга Романовна</t>
+  </si>
+  <si>
+    <t>Юдина Лада Александровна</t>
+  </si>
+  <si>
+    <t>Юхнина Екатерина Сергеевна</t>
+  </si>
+  <si>
     <t>Мужской</t>
   </si>
   <si>
@@ -1742,10 +2190,23 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="'UICTFontTextStyleBody'"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2227,139 +2688,147 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2368,12 +2837,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2703,40 +3166,40 @@
   </sheetPr>
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.5740740740741" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.287037037037" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.287037037037" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1388888888889" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="12.5740740740741" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7777777777778" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.287037037037" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.287037037037" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.1388888888889" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2744,19 +3207,19 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2764,19 +3227,19 @@
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2784,19 +3247,19 @@
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2804,19 +3267,19 @@
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2824,19 +3287,19 @@
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2844,19 +3307,19 @@
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2864,19 +3327,19 @@
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2884,19 +3347,19 @@
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2904,19 +3367,19 @@
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2924,19 +3387,19 @@
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2944,19 +3407,19 @@
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2964,19 +3427,19 @@
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2984,19 +3447,19 @@
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3004,19 +3467,19 @@
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3024,19 +3487,19 @@
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3044,19 +3507,19 @@
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3064,19 +3527,19 @@
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3084,19 +3547,19 @@
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3104,19 +3567,19 @@
       <c r="A20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3124,19 +3587,19 @@
       <c r="A21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3144,19 +3607,19 @@
       <c r="A22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3164,19 +3627,19 @@
       <c r="A23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3184,19 +3647,19 @@
       <c r="A24" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3204,19 +3667,19 @@
       <c r="A25" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3224,19 +3687,19 @@
       <c r="A26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3244,19 +3707,19 @@
       <c r="A27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3264,19 +3727,19 @@
       <c r="A28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3284,19 +3747,19 @@
       <c r="A29" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3304,19 +3767,19 @@
       <c r="A30" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3324,19 +3787,19 @@
       <c r="A31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3344,19 +3807,19 @@
       <c r="A32" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3364,19 +3827,19 @@
       <c r="A33" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3384,19 +3847,19 @@
       <c r="A34" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G34" s="5"/>
@@ -3405,19 +3868,19 @@
       <c r="A35" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3425,19 +3888,19 @@
       <c r="A36" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3445,19 +3908,19 @@
       <c r="A37" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3465,16 +3928,16 @@
       <c r="A38" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3482,19 +3945,19 @@
       <c r="A39" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3502,19 +3965,19 @@
       <c r="A40" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3522,19 +3985,19 @@
       <c r="A41" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3542,19 +4005,19 @@
       <c r="A42" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3562,19 +4025,19 @@
       <c r="A43" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3582,19 +4045,19 @@
       <c r="A44" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3602,19 +4065,19 @@
       <c r="A45" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3622,19 +4085,19 @@
       <c r="A46" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3642,19 +4105,19 @@
       <c r="A47" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3662,19 +4125,19 @@
       <c r="A48" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3682,19 +4145,19 @@
       <c r="A49" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3702,19 +4165,19 @@
       <c r="A50" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3722,19 +4185,19 @@
       <c r="A51" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3742,19 +4205,19 @@
       <c r="A52" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3762,19 +4225,19 @@
       <c r="A53" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3782,19 +4245,19 @@
       <c r="A54" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3802,19 +4265,19 @@
       <c r="A55" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3822,19 +4285,19 @@
       <c r="A56" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3842,19 +4305,19 @@
       <c r="A57" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3862,19 +4325,19 @@
       <c r="A58" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3882,19 +4345,19 @@
       <c r="A59" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3902,19 +4365,19 @@
       <c r="A60" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3922,19 +4385,19 @@
       <c r="A61" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3942,19 +4405,19 @@
       <c r="A62" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3962,19 +4425,19 @@
       <c r="A63" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3982,19 +4445,19 @@
       <c r="A64" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4002,19 +4465,19 @@
       <c r="A65" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4022,19 +4485,19 @@
       <c r="A66" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4042,19 +4505,19 @@
       <c r="A67" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4062,19 +4525,19 @@
       <c r="A68" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4082,19 +4545,19 @@
       <c r="A69" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4102,19 +4565,19 @@
       <c r="A70" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4122,19 +4585,19 @@
       <c r="A71" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4142,19 +4605,19 @@
       <c r="A72" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4162,19 +4625,19 @@
       <c r="A73" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4182,19 +4645,19 @@
       <c r="A74" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4202,19 +4665,19 @@
       <c r="A75" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4222,19 +4685,19 @@
       <c r="A76" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4242,19 +4705,19 @@
       <c r="A77" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4262,19 +4725,19 @@
       <c r="A78" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4282,19 +4745,19 @@
       <c r="A79" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4302,19 +4765,19 @@
       <c r="A80" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4322,19 +4785,19 @@
       <c r="A81" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4342,19 +4805,19 @@
       <c r="A82" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4362,19 +4825,19 @@
       <c r="A83" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4382,19 +4845,19 @@
       <c r="A84" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4402,16 +4865,16 @@
       <c r="A85" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4419,16 +4882,16 @@
       <c r="A86" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4436,19 +4899,19 @@
       <c r="A87" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4456,19 +4919,19 @@
       <c r="A88" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4476,19 +4939,19 @@
       <c r="A89" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4496,19 +4959,19 @@
       <c r="A90" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4516,19 +4979,19 @@
       <c r="A91" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4536,19 +4999,19 @@
       <c r="A92" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4556,19 +5019,19 @@
       <c r="A93" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4576,19 +5039,19 @@
       <c r="A94" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4596,19 +5059,19 @@
       <c r="A95" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4616,19 +5079,19 @@
       <c r="A96" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4636,19 +5099,19 @@
       <c r="A97" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4656,19 +5119,19 @@
       <c r="A98" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4676,19 +5139,19 @@
       <c r="A99" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4696,19 +5159,19 @@
       <c r="A100" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4716,19 +5179,19 @@
       <c r="A101" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4736,19 +5199,19 @@
       <c r="A102" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4756,19 +5219,19 @@
       <c r="A103" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4776,19 +5239,19 @@
       <c r="A104" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4796,19 +5259,19 @@
       <c r="A105" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4816,19 +5279,19 @@
       <c r="A106" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4836,19 +5299,19 @@
       <c r="A107" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4856,19 +5319,19 @@
       <c r="A108" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4876,19 +5339,19 @@
       <c r="A109" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4896,19 +5359,19 @@
       <c r="A110" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4916,19 +5379,19 @@
       <c r="A111" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4936,19 +5399,19 @@
       <c r="A112" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4956,19 +5419,19 @@
       <c r="A113" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4976,19 +5439,19 @@
       <c r="A114" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4996,19 +5459,19 @@
       <c r="A115" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5016,19 +5479,19 @@
       <c r="A116" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5036,19 +5499,19 @@
       <c r="A117" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5056,19 +5519,19 @@
       <c r="A118" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5076,19 +5539,19 @@
       <c r="A119" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5096,19 +5559,19 @@
       <c r="A120" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5116,19 +5579,19 @@
       <c r="A121" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5136,19 +5599,19 @@
       <c r="A122" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5156,19 +5619,19 @@
       <c r="A123" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5176,19 +5639,19 @@
       <c r="A124" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5196,19 +5659,19 @@
       <c r="A125" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5216,19 +5679,19 @@
       <c r="A126" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5236,19 +5699,19 @@
       <c r="A127" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5256,19 +5719,19 @@
       <c r="A128" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5276,19 +5739,19 @@
       <c r="A129" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5296,19 +5759,19 @@
       <c r="A130" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5316,19 +5779,19 @@
       <c r="A131" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5336,19 +5799,19 @@
       <c r="A132" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5356,19 +5819,19 @@
       <c r="A133" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5376,16 +5839,16 @@
       <c r="A134" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>343</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5393,16 +5856,16 @@
       <c r="A135" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5410,19 +5873,19 @@
       <c r="A136" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5430,19 +5893,19 @@
       <c r="A137" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5450,19 +5913,19 @@
       <c r="A138" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5470,19 +5933,19 @@
       <c r="A139" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5490,33 +5953,33 @@
       <c r="A140" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="4" t="s">
         <v>554</v>
       </c>
     </row>
@@ -5524,13 +5987,13 @@
       <c r="A142" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>557</v>
       </c>
     </row>
@@ -5554,12 +6017,1620 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D2:E34 F2:F18 F20:F33 A10:C34 B8:C9 A3:C7 B2:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:C2 A3:C7 B8:C9 A10:C34 F20:F33 F2:F18 D2:E34" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="38.4444444444444" customWidth="1"/>
+    <col min="4" max="10" width="10.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C74" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C75" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C76" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C79" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C80" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C81" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C82" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C85" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C86" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C87" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C88" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C90" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C93" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C94" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C95" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C96" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C97" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C98" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C99" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C100" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C101" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C102" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C106" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C107" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C108" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C109" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C110" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C111" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C112" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C113" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C114" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C115" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C116" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C117" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C118" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C119" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C120" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C121" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C122" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C123" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C124" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C125" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C126" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C127" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C128" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C129" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C130" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C131" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C132" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C133" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C134" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C135" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C136" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C137" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C138" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C139" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C140" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C141" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C142" s="3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C141">
+    <sortCondition ref="C1:C141"/>
+    <sortCondition ref="A1:A141"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5574,12 +7645,12 @@
   <sheetData>
     <row r="1" spans="23:23">
       <c r="W1" t="s">
-        <v>558</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="23:23">
       <c r="W2" t="s">
-        <v>559</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/data/Classes_2025_biology.xlsx
+++ b/data/Classes_2025_biology.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Lectures\General-ecology\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4459CC1D-6B4D-4676-93DF-5E626FB5D118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9264" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,9 +29,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2183,14 +2190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2219,352 +2220,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2573,252 +2251,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2838,67 +2289,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="0034EBF4"/>
+      <color rgb="FF34EBF4"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3156,11 +2566,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3168,18 +2579,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:D142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5740740740741" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.5555555555556" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.7777777777778" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.287037037037" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.287037037037" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.1388888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -3823,7 +3233,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>151</v>
       </c>
@@ -3864,7 +3274,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>158</v>
       </c>
@@ -3884,7 +3294,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
         <v>162</v>
       </c>
@@ -3904,7 +3314,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>167</v>
       </c>
@@ -3924,7 +3334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
         <v>171</v>
       </c>
@@ -3941,7 +3351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
         <v>172</v>
       </c>
@@ -3961,7 +3371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>177</v>
       </c>
@@ -3981,7 +3391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
         <v>181</v>
       </c>
@@ -4001,7 +3411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
         <v>184</v>
       </c>
@@ -4021,7 +3431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
         <v>187</v>
       </c>
@@ -4041,7 +3451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>187</v>
       </c>
@@ -4061,7 +3471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
         <v>194</v>
       </c>
@@ -4081,7 +3491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
         <v>198</v>
       </c>
@@ -4101,7 +3511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>202</v>
       </c>
@@ -4121,7 +3531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>206</v>
       </c>
@@ -5969,7 +5379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:6">
       <c r="A141" s="4" t="s">
         <v>554</v>
       </c>
@@ -5983,7 +5393,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:6">
       <c r="A142" s="5" t="s">
         <v>555</v>
       </c>
@@ -5997,10 +5407,10 @@
         <v>557</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:6">
       <c r="A143" s="5"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:6">
       <c r="A144" s="5"/>
     </row>
     <row r="145" spans="1:1">
@@ -6010,12 +5420,9 @@
       <c r="A146" s="5"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F142" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F142" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="B2:C2 A3:C7 B8:C9 A10:C34 F20:F33 F2:F18 D2:E34" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -6023,18 +5430,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J142"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.4444444444444" customWidth="1"/>
-    <col min="4" max="10" width="10.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="4" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6069,7 +5475,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>566</v>
       </c>
@@ -6080,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>567</v>
       </c>
@@ -6091,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>568</v>
       </c>
@@ -6102,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>569</v>
       </c>
@@ -6113,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>570</v>
       </c>
@@ -6124,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>571</v>
       </c>
@@ -6135,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>572</v>
       </c>
@@ -6146,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>573</v>
       </c>
@@ -6157,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>574</v>
       </c>
@@ -6168,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>575</v>
       </c>
@@ -6179,7 +5585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>576</v>
       </c>
@@ -6190,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>577</v>
       </c>
@@ -6201,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>578</v>
       </c>
@@ -6212,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>579</v>
       </c>
@@ -6223,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>580</v>
       </c>
@@ -6531,7 +5937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>608</v>
       </c>
@@ -6542,23 +5948,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>190</v>
+      <c r="B45" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="C45" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>192</v>
+      <c r="B46" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="C46" s="3">
         <v>3</v>
@@ -7621,27 +7027,25 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C141">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C141">
     <sortCondition ref="C1:C141"/>
     <sortCondition ref="A1:A141"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="W1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="23:23">
       <c r="W1" t="s">
@@ -7655,7 +7059,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="W1:W2" numberStoredAsText="1"/>
   </ignoredErrors>
